--- a/multiRFEscore.xlsx
+++ b/multiRFEscore.xlsx
@@ -447,163 +447,163 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> flow iat mean</t>
+          <t xml:space="preserve"> fwd iat mean</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.06846291171661036</v>
+        <v>0.06769784612465463</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> flow packets/s</t>
+          <t xml:space="preserve"> idle max</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.06279995745154859</v>
+        <v>0.05636658578232057</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>idle mean</t>
+          <t>active mean</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.06028350085873492</v>
+        <v>0.05606645181572893</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> flow iat max</t>
+          <t>idle mean</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.05950963613829027</v>
+        <v>0.05602727330592319</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> idle max</t>
+          <t xml:space="preserve"> idle std</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.05567865791187157</v>
+        <v>0.05389118965022242</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> fwd iat std</t>
+          <t>fwd packets/s</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.05310229072536038</v>
+        <v>0.05182011835112001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> fwd iat mean</t>
+          <t xml:space="preserve"> flow packets/s</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.05263036450001365</v>
+        <v>0.04997648633379258</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> flow iat std</t>
+          <t xml:space="preserve"> active max</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.04998598159546632</v>
+        <v>0.04930840634115916</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> idle std</t>
+          <t xml:space="preserve"> fwd iat std</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.04353449600556383</v>
+        <v>0.04876361426403086</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> active max</t>
+          <t xml:space="preserve"> flow iat std</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.04043439294777838</v>
+        <v>0.04859743407654418</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>active mean</t>
+          <t xml:space="preserve"> flow iat max</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.04000974413080631</v>
+        <v>0.04534646550615448</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>fwd packets/s</t>
+          <t xml:space="preserve"> flow iat mean</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.0393714316885542</v>
+        <v>0.04450247153175806</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -611,98 +611,98 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.0389611458258159</v>
+        <v>0.04147764736462393</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> fwd header length</t>
+          <t>fwd iat total</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.03632525076807648</v>
+        <v>0.03737444305125985</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> fwd header length.1</t>
+          <t xml:space="preserve"> flow duration</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.03123785558996588</v>
+        <v>0.03315794791326551</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>fwd iat total</t>
+          <t>unnamed: 0</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.03020302340345829</v>
+        <v>0.02933311519890231</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>unnamed: 0</t>
+          <t xml:space="preserve"> destination port</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.02746935952000552</v>
+        <v>0.02658237834529181</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> destination port</t>
+          <t xml:space="preserve"> fwd header length</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.02648519466412599</v>
+        <v>0.02618959168310042</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> flow duration</t>
+          <t xml:space="preserve"> source port</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.02507827193010773</v>
+        <v>0.02524308250887036</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> source port</t>
+          <t xml:space="preserve"> fwd header length.1</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.02465519575037648</v>
+        <v>0.02205368484022347</v>
       </c>
     </row>
     <row r="22">
@@ -715,7 +715,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.0242124374943592</v>
+        <v>0.01944614163236684</v>
       </c>
     </row>
     <row r="23">
@@ -728,51 +728,51 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.01685184811976178</v>
+        <v>0.01591129288770157</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> bwd packets/s</t>
+          <t>subflow fwd packets</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.01108424987203177</v>
+        <v>0.01101296943986675</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> bwd iat mean</t>
+          <t xml:space="preserve"> bwd packets/s</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.008239147048649517</v>
+        <v>0.01042517508593886</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>subflow fwd packets</t>
+          <t xml:space="preserve"> bwd iat mean</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.008132755715410635</v>
+        <v>0.008389207544631676</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -780,25 +780,25 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.007914079901328865</v>
+        <v>0.008310262288944294</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>bwd iat total</t>
+          <t xml:space="preserve"> bwd iat max</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.007712100375171552</v>
+        <v>0.007866909105776962</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -806,12 +806,12 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.007698220822232352</v>
+        <v>0.007166733879168941</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -819,64 +819,64 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.007440008690008649</v>
+        <v>0.0066033476387876</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> bwd iat max</t>
+          <t>bwd iat total</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.007235366455713176</v>
+        <v>0.006478809096188688</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> bwd iat std</t>
+          <t xml:space="preserve"> flow iat min</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.00538744509185375</v>
+        <v>0.00529671858594499</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> flow iat min</t>
+          <t xml:space="preserve"> bwd header length</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.005372933436837988</v>
+        <v>0.004874241291239621</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> bwd header length</t>
+          <t xml:space="preserve"> subflow bwd packets</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.004796635473520585</v>
+        <v>0.00469712409310801</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -884,25 +884,25 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.004777392111777777</v>
+        <v>0.004670483505486402</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> subflow bwd packets</t>
+          <t xml:space="preserve"> bwd iat std</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.004277416077852962</v>
+        <v>0.004135291004917247</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -910,42 +910,42 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.002606303641910346</v>
+        <v>0.002959463898716409</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> min_seg_size_forward</t>
+          <t xml:space="preserve"> protocol</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4.299654904809866e-05</v>
+        <v>0.001914787924392082</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> fwd packet length max</t>
+          <t>init_win_bytes_forward</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>6.480710787634774e-05</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>flow bytes/s</t>
+          <t xml:space="preserve"> bwd packet length mean</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -954,11 +954,11 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>init_win_bytes_forward</t>
+          <t xml:space="preserve"> fwd packet length max</t>
         </is>
       </c>
       <c r="C41" t="n">

--- a/multiRFEscore.xlsx
+++ b/multiRFEscore.xlsx
@@ -447,106 +447,106 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> fwd iat mean</t>
+          <t xml:space="preserve"> flow iat mean</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.06769784612465463</v>
+        <v>0.06443511006899633</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> idle max</t>
+          <t xml:space="preserve"> idle std</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.05636658578232057</v>
+        <v>0.0636723667222809</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>active mean</t>
+          <t xml:space="preserve"> idle max</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.05606645181572893</v>
+        <v>0.06328431641180617</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>idle mean</t>
+          <t xml:space="preserve"> fwd iat std</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.05602727330592319</v>
+        <v>0.06225823549536497</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> idle std</t>
+          <t>idle mean</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.05389118965022242</v>
+        <v>0.05826604289883282</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>fwd packets/s</t>
+          <t xml:space="preserve"> active max</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.05182011835112001</v>
+        <v>0.05491780574671547</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> flow packets/s</t>
+          <t xml:space="preserve"> flow iat std</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.04997648633379258</v>
+        <v>0.05140654897961189</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> active max</t>
+          <t xml:space="preserve"> fwd iat mean</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.04930840634115916</v>
+        <v>0.0509588644217666</v>
       </c>
     </row>
     <row r="10">
@@ -555,29 +555,29 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> fwd iat std</t>
+          <t xml:space="preserve"> fwd iat max</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.04876361426403086</v>
+        <v>0.04987568190012077</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> flow iat std</t>
+          <t>fwd packets/s</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.04859743407654418</v>
+        <v>0.04405976205086583</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -585,124 +585,124 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.04534646550615448</v>
+        <v>0.0406165086896004</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> flow iat mean</t>
+          <t>active mean</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.04450247153175806</v>
+        <v>0.03733854205561668</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> fwd iat max</t>
+          <t>fwd iat total</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.04147764736462393</v>
+        <v>0.03613550314701117</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>fwd iat total</t>
+          <t xml:space="preserve"> flow duration</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.03737444305125985</v>
+        <v>0.03422155148711845</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> flow duration</t>
+          <t xml:space="preserve"> flow packets/s</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.03315794791326551</v>
+        <v>0.02962542166943273</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>unnamed: 0</t>
+          <t xml:space="preserve"> destination port</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.02933311519890231</v>
+        <v>0.02750043494608034</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> destination port</t>
+          <t xml:space="preserve"> fwd header length</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.02658237834529181</v>
+        <v>0.02724621398490656</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> fwd header length</t>
+          <t xml:space="preserve"> source port</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.02618959168310042</v>
+        <v>0.02431620802716865</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> source port</t>
+          <t>unnamed: 0</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.02524308250887036</v>
+        <v>0.0238299709213346</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> fwd header length.1</t>
+          <t xml:space="preserve"> active std</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.02205368484022347</v>
+        <v>0.02320110701954508</v>
       </c>
     </row>
     <row r="22">
@@ -715,51 +715,51 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.01944614163236684</v>
+        <v>0.01942716659900327</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> active std</t>
+          <t xml:space="preserve"> fwd header length.1</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.01591129288770157</v>
+        <v>0.01674702551005226</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>subflow fwd packets</t>
+          <t xml:space="preserve"> bwd packets/s</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.01101296943986675</v>
+        <v>0.0124908685589118</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> bwd packets/s</t>
+          <t>subflow fwd packets</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.01042517508593886</v>
+        <v>0.01127058358226555</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -767,64 +767,64 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.008389207544631676</v>
+        <v>0.007837526379607133</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> total fwd packets</t>
+          <t xml:space="preserve"> bwd iat min</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.008310262288944294</v>
+        <v>0.007574745634046797</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> bwd iat max</t>
+          <t xml:space="preserve"> flow iat min</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.007866909105776962</v>
+        <v>0.007196968327873438</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> bwd iat min</t>
+          <t xml:space="preserve"> total fwd packets</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.007166733879168941</v>
+        <v>0.007189272705988755</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> fwd iat min</t>
+          <t xml:space="preserve"> bwd iat max</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.0066033476387876</v>
+        <v>0.00634848416226535</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -832,46 +832,46 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.006478809096188688</v>
+        <v>0.006286990434582378</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> flow iat min</t>
+          <t xml:space="preserve"> bwd header length</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.00529671858594499</v>
+        <v>0.005449518856900756</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> bwd header length</t>
+          <t xml:space="preserve"> subflow bwd packets</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.004874241291239621</v>
+        <v>0.005029937176339123</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> subflow bwd packets</t>
+          <t xml:space="preserve"> bwd iat std</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.00469712409310801</v>
+        <v>0.005010750822759714</v>
       </c>
     </row>
     <row r="35">
@@ -884,25 +884,25 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.004670483505486402</v>
+        <v>0.00485380515851973</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> bwd iat std</t>
+          <t xml:space="preserve"> fwd iat min</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.004135291004917247</v>
+        <v>0.004716934181370107</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -910,46 +910,46 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.002959463898716409</v>
+        <v>0.003339242191054304</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> protocol</t>
+          <t xml:space="preserve"> min_seg_size_forward</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.001914787924392082</v>
+        <v>0.001829955519566593</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>init_win_bytes_forward</t>
+          <t xml:space="preserve"> protocol</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>6.480710787634774e-05</v>
+        <v>0.0001211580141450257</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> bwd packet length mean</t>
+          <t>init_win_bytes_forward</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>0.0001128695405715081</v>
       </c>
     </row>
     <row r="41">
@@ -958,7 +958,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> fwd packet length max</t>
+          <t>total length of fwd packets</t>
         </is>
       </c>
       <c r="C41" t="n">

--- a/multiRFEscore.xlsx
+++ b/multiRFEscore.xlsx
@@ -447,7 +447,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -455,90 +455,90 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.06443511006899633</v>
+        <v>0.08055015349607821</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> idle std</t>
+          <t xml:space="preserve"> flow iat std</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.0636723667222809</v>
+        <v>0.07270082132768894</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> idle max</t>
+          <t>fwd packets/s</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.06328431641180617</v>
+        <v>0.06481141024364911</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> fwd iat std</t>
+          <t>active mean</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.06225823549536497</v>
+        <v>0.05627104478051453</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>idle mean</t>
+          <t xml:space="preserve"> idle max</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.05826604289883282</v>
+        <v>0.05049070703404469</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> active max</t>
+          <t xml:space="preserve"> flow iat max</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.05491780574671547</v>
+        <v>0.05026046295055656</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> flow iat std</t>
+          <t xml:space="preserve"> fwd iat std</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.05140654897961189</v>
+        <v>0.04966944634751469</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -546,137 +546,137 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.0509588644217666</v>
+        <v>0.04853132954925229</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> fwd iat max</t>
+          <t xml:space="preserve"> flow packets/s</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.04987568190012077</v>
+        <v>0.04608724292956851</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>fwd packets/s</t>
+          <t xml:space="preserve"> fwd iat max</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.04405976205086583</v>
+        <v>0.04554113138495975</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> flow iat max</t>
+          <t xml:space="preserve"> idle std</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.0406165086896004</v>
+        <v>0.04465706248086732</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>active mean</t>
+          <t>idle mean</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.03733854205561668</v>
+        <v>0.04066700708049233</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>fwd iat total</t>
+          <t xml:space="preserve"> active min</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.03613550314701117</v>
+        <v>0.03856855533334616</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> flow duration</t>
+          <t xml:space="preserve"> active max</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.03422155148711845</v>
+        <v>0.03546396674680396</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> flow packets/s</t>
+          <t xml:space="preserve"> flow duration</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.02962542166943273</v>
+        <v>0.03298504706306891</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> destination port</t>
+          <t>fwd iat total</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.02750043494608034</v>
+        <v>0.03045008295225271</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> fwd header length</t>
+          <t xml:space="preserve"> source port</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.02724621398490656</v>
+        <v>0.02847548235125886</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> source port</t>
+          <t xml:space="preserve"> destination port</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.02431620802716865</v>
+        <v>0.02644264858877517</v>
       </c>
     </row>
     <row r="20">
@@ -689,7 +689,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.0238299709213346</v>
+        <v>0.0260856141974852</v>
       </c>
     </row>
     <row r="21">
@@ -702,20 +702,20 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.02320110701954508</v>
+        <v>0.01691276245521914</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> active min</t>
+          <t xml:space="preserve"> fwd header length</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.01942716659900327</v>
+        <v>0.01274158823597231</v>
       </c>
     </row>
     <row r="23">
@@ -728,12 +728,12 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.01674702551005226</v>
+        <v>0.01231193803650642</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -741,38 +741,38 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.0124908685589118</v>
+        <v>0.01159180161128786</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>subflow fwd packets</t>
+          <t xml:space="preserve"> total fwd packets</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.01127058358226555</v>
+        <v>0.007887489050856589</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> bwd iat mean</t>
+          <t>subflow fwd packets</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.007837526379607133</v>
+        <v>0.007721182994236051</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -780,64 +780,64 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.007574745634046797</v>
+        <v>0.007640457070347585</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> flow iat min</t>
+          <t xml:space="preserve"> bwd iat max</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.007196968327873438</v>
+        <v>0.007266192816313094</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> total fwd packets</t>
+          <t>bwd iat total</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.007189272705988755</v>
+        <v>0.007037809465057744</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> bwd iat max</t>
+          <t xml:space="preserve"> bwd iat mean</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.00634848416226535</v>
+        <v>0.006790356911795026</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>bwd iat total</t>
+          <t xml:space="preserve"> flow iat min</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.006286990434582378</v>
+        <v>0.005857122986542918</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -845,59 +845,59 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.005449518856900756</v>
+        <v>0.005265347380857516</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> subflow bwd packets</t>
+          <t xml:space="preserve"> total backward packets</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.005029937176339123</v>
+        <v>0.005232432359846432</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> bwd iat std</t>
+          <t xml:space="preserve"> fwd iat min</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.005010750822759714</v>
+        <v>0.004440724482792023</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> total backward packets</t>
+          <t xml:space="preserve"> bwd iat std</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.00485380515851973</v>
+        <v>0.004407882258328834</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> fwd iat min</t>
+          <t xml:space="preserve"> subflow bwd packets</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.004716934181370107</v>
+        <v>0.003884571851236717</v>
       </c>
     </row>
     <row r="37">
@@ -910,7 +910,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.003339242191054304</v>
+        <v>0.002392363151722256</v>
       </c>
     </row>
     <row r="38">
@@ -923,42 +923,42 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.001829955519566593</v>
+        <v>0.001719043421305192</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> protocol</t>
+          <t>init_win_bytes_forward</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.0001211580141450257</v>
+        <v>0.0001596250062656666</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>init_win_bytes_forward</t>
+          <t xml:space="preserve"> ack flag count</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.0001128695405715081</v>
+        <v>3.009161533270264e-05</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>total length of fwd packets</t>
+          <t xml:space="preserve"> bwd packet length std</t>
         </is>
       </c>
       <c r="C41" t="n">
